--- a/Schema.xlsx
+++ b/Schema.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16828"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,10 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="UserProfile" sheetId="1" r:id="rId1"/>
+    <sheet name="passResetCode" sheetId="2" r:id="rId2"/>
+    <sheet name="Customer" sheetId="3" r:id="rId3"/>
+    <sheet name="Service Provider" sheetId="4" r:id="rId4"/>
+    <sheet name="booking" sheetId="5" r:id="rId5"/>
+    <sheet name="providerlogin" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="24">
   <si>
     <t>Property Name</t>
   </si>
@@ -42,6 +47,60 @@
   </si>
   <si>
     <t>Password</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Zip Code</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>sendMail</t>
+  </si>
+  <si>
+    <t>serviceType</t>
+  </si>
+  <si>
+    <t>serveOutside</t>
+  </si>
+  <si>
+    <t>dateofbooking</t>
+  </si>
+  <si>
+    <t>functiondate</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>catering</t>
+  </si>
+  <si>
+    <t>Travel</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
   </si>
 </sst>
 </file>
@@ -395,8 +454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,4 +493,320 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Schema.xlsx
+++ b/Schema.xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="UserProfile" sheetId="1" r:id="rId1"/>
     <sheet name="passResetCode" sheetId="2" r:id="rId2"/>
     <sheet name="Customer" sheetId="3" r:id="rId3"/>
-    <sheet name="Service Provider" sheetId="4" r:id="rId4"/>
-    <sheet name="booking" sheetId="5" r:id="rId5"/>
-    <sheet name="providerlogin" sheetId="6" r:id="rId6"/>
+    <sheet name="providerlogin" sheetId="6" r:id="rId4"/>
+    <sheet name="Service Provider" sheetId="4" r:id="rId5"/>
+    <sheet name="booking" sheetId="5" r:id="rId6"/>
+    <sheet name="astrobooking" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="25">
   <si>
     <t>Property Name</t>
   </si>
@@ -101,6 +102,9 @@
   </si>
   <si>
     <t>password</t>
+  </si>
+  <si>
+    <t>horoscope</t>
   </si>
 </sst>
 </file>
@@ -460,7 +464,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -505,7 +509,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -550,7 +554,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -620,6 +624,50 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -629,7 +677,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -703,17 +751,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -767,17 +815,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -793,17 +841,27 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
